--- a/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,30 +620,40 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-9,55</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-80,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-30,94%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 11,98</t>
+          <t>-20,41; 1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,88; -2,74</t>
+          <t>-14,98; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,19; -2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 202,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-10,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-66,66%</t>
+          <t>-10,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>-69,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,48%</t>
+          <t>-70,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-79,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-66,0%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -1,36</t>
+          <t>-11,17; -0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 9,95</t>
+          <t>-18,01; -4,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -2,54</t>
+          <t>-16,38; -3,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,99; 2,61</t>
+          <t>-19,16; -3,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,87; 74,62</t>
+          <t>-93,75; -0,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,27; -17,3</t>
+          <t>-87,76; -35,2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-94,93; -30,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-85,81; -28,05</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,15%</t>
+          <t>47,72%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-26,89%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 2,88</t>
+          <t>-10,91; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 5,45</t>
+          <t>-3,19; 8,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 3,35</t>
+          <t>-13,03; 3,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-66,7; 27,86</t>
+          <t>-6,66; 12,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 66,12</t>
+          <t>-66,65; 57,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,98; 30,73</t>
+          <t>-46,13; 351,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-65,96; 51,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-42,2; 166,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,49; 27,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -18,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-44,99%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-50,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-54,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-43,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; -0,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; -1,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; -1,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; -0,78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-69,84; 1,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-72,07; -12,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-73,77; -17,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-66,19; -3,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-80,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.332112722470374</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.057143135147147</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.904943469476693</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.8270034347634662</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,41; 1,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,98; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,19; -2,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>-19.55469486684221</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.55210479596307</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-22.68962376028021</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>0.1958625955797397</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.075551766254436</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,94</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-69,69%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-70,73%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-79,1%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-66,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; -0,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,01; -4,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,38; -3,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,16; -3,73</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-93,75; -0,62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,76; -35,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-94,93; -30,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-85,81; -28,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.249159371918644</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.66323407852187</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.30841444259766</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.74110073835241</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.6465773270244206</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7163072967622438</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.8071180755940024</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6433737794401744</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,99%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>47,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-26,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.23486478868066</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.94179066808399</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-18.97951187760564</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-19.07868661421631</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9301186061738018</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8795393143949384</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.95339090037735</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8540143678022888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 3,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 8,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,03; 3,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 12,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-66,65; 57,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-46,13; 351,54</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-65,96; 51,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-42,2; 166,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.06421157994846723</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-4.576909183054442</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-4.480780608627129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-3.267106782673188</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1696431961335682</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.3662386374964778</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.3221883201068655</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.2382176513268531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +805,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.110164261721485</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.228702667013978</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.475707462127848</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.645946070399007</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2015303717269594</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4686640968528225</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.32037512958826</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3253072464609141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.902839519120372</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.266923888917379</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.68380353197018</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.886511156058489</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6254683644433582</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4710987784233121</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6829262498425538</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4185542695095619</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.085774879073263</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.66891884097257</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.987790375396939</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.25206419331972</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.8499451871559101</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.49211317371405</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3765809708862843</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.861877644157128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,9</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-44,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-50,25%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-54,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-43,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; -0,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; -1,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; -1,72</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; -0,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-69,84; 1,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-72,07; -12,23</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-73,77; -17,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-66,19; -3,73</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.180270466260631</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.429993877842008</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.415737002488116</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.81018591219072</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4030156208107171</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5236565216613329</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.6057105554561988</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.4231171946082263</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.995636626124921</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.04439203265465</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.69644476194656</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.03145679097851</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6748942101277154</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7309484071420809</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.773835468296704</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6663660441895891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.3568644392123225</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.611351996097517</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.710248966841366</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.379122320161994</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.09865523733664416</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1586930150108139</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2817763780399192</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.02054664524398629</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
